--- a/Team-Data/2013-14/2-20-2013-14.xlsx
+++ b/Team-Data/2013-14/2-20-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>16</v>
@@ -756,7 +823,7 @@
         <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>24</v>
@@ -983,7 +1050,7 @@
         <v>23</v>
       </c>
       <c r="AW3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX3" t="n">
         <v>15</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
         <v>16</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
         <v>13</v>
@@ -1329,7 +1396,7 @@
         <v>7</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1526,7 +1593,7 @@
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW6" t="n">
         <v>20</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>21</v>
@@ -1684,7 +1751,7 @@
         <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO7" t="n">
         <v>16</v>
@@ -1693,7 +1760,7 @@
         <v>16</v>
       </c>
       <c r="AQ7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR7" t="n">
         <v>3</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>1.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
         <v>28</v>
       </c>
       <c r="G9" t="n">
-        <v>0.472</v>
+        <v>0.462</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1958,37 +2025,37 @@
         <v>38</v>
       </c>
       <c r="J9" t="n">
-        <v>84.8</v>
+        <v>85</v>
       </c>
       <c r="K9" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L9" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O9" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P9" t="n">
         <v>26</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.724</v>
+        <v>0.727</v>
       </c>
       <c r="R9" t="n">
         <v>12.3</v>
       </c>
       <c r="S9" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T9" t="n">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="U9" t="n">
         <v>22</v>
@@ -1997,7 +2064,7 @@
         <v>15.5</v>
       </c>
       <c r="W9" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X9" t="n">
         <v>5.7</v>
@@ -2006,7 +2073,7 @@
         <v>5.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA9" t="n">
         <v>21.4</v>
@@ -2015,19 +2082,19 @@
         <v>103.1</v>
       </c>
       <c r="AC9" t="n">
-        <v>-1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
         <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH9" t="n">
         <v>27</v>
@@ -2036,10 +2103,10 @@
         <v>14</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>9</v>
@@ -2048,16 +2115,16 @@
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="n">
         <v>5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>5</v>
@@ -2066,7 +2133,7 @@
         <v>8</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
         <v>13</v>
@@ -2075,7 +2142,7 @@
         <v>24</v>
       </c>
       <c r="AW9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX9" t="n">
         <v>5</v>
@@ -2084,7 +2151,7 @@
         <v>22</v>
       </c>
       <c r="AZ9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
         <v>7</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2212,7 +2279,7 @@
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
         <v>7</v>
@@ -2221,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>26</v>
@@ -2260,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="AX10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" t="n">
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.593</v>
       </c>
       <c r="H11" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
-        <v>85.09999999999999</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L11" t="n">
         <v>9.199999999999999</v>
@@ -2334,7 +2401,7 @@
         <v>24.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O11" t="n">
         <v>16.4</v>
@@ -2343,7 +2410,7 @@
         <v>22</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.744</v>
+        <v>0.743</v>
       </c>
       <c r="R11" t="n">
         <v>11.2</v>
@@ -2355,7 +2422,7 @@
         <v>45.8</v>
       </c>
       <c r="U11" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V11" t="n">
         <v>15.9</v>
@@ -2364,16 +2431,16 @@
         <v>7.9</v>
       </c>
       <c r="X11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y11" t="n">
         <v>4.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB11" t="n">
         <v>103.5</v>
@@ -2382,7 +2449,7 @@
         <v>4.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,13 +2461,13 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK11" t="n">
         <v>8</v>
@@ -2412,19 +2479,19 @@
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
       </c>
       <c r="AQ11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2442,7 +2509,7 @@
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -2486,85 +2553,85 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="n">
         <v>37</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" t="n">
-        <v>0.673</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I12" t="n">
         <v>37.6</v>
       </c>
       <c r="J12" t="n">
-        <v>79.7</v>
+        <v>79.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.472</v>
+        <v>0.475</v>
       </c>
       <c r="L12" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="N12" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O12" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="P12" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R12" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="S12" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T12" t="n">
-        <v>45.4</v>
+        <v>45.1</v>
       </c>
       <c r="U12" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V12" t="n">
         <v>16.2</v>
       </c>
       <c r="W12" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
         <v>5.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA12" t="n">
         <v>24.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2576,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>16</v>
@@ -2606,13 +2673,13 @@
         <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
       </c>
       <c r="AT12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU12" t="n">
         <v>22</v>
@@ -2630,7 +2697,7 @@
         <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -2746,19 +2813,19 @@
         <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
       </c>
       <c r="AF13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG13" t="n">
         <v>2</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3176,7 +3243,7 @@
         <v>14</v>
       </c>
       <c r="AZ15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -3396,22 +3463,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.736</v>
+        <v>0.731</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J17" t="n">
         <v>76.7</v>
@@ -3423,16 +3490,16 @@
         <v>8.1</v>
       </c>
       <c r="M17" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="N17" t="n">
-        <v>0.368</v>
+        <v>0.37</v>
       </c>
       <c r="O17" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P17" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q17" t="n">
         <v>0.758</v>
@@ -3441,19 +3508,19 @@
         <v>7.3</v>
       </c>
       <c r="S17" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="U17" t="n">
         <v>23.5</v>
       </c>
       <c r="V17" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W17" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X17" t="n">
         <v>4.3</v>
@@ -3465,16 +3532,16 @@
         <v>20.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB17" t="n">
         <v>104.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3486,10 +3553,10 @@
         <v>3</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3501,7 +3568,7 @@
         <v>11</v>
       </c>
       <c r="AM17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -3578,19 +3645,19 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" t="n">
-        <v>0.185</v>
+        <v>0.189</v>
       </c>
       <c r="H18" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I18" t="n">
         <v>35</v>
@@ -3602,13 +3669,13 @@
         <v>0.423</v>
       </c>
       <c r="L18" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M18" t="n">
         <v>20.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.351</v>
+        <v>0.354</v>
       </c>
       <c r="O18" t="n">
         <v>15.3</v>
@@ -3623,22 +3690,22 @@
         <v>11.5</v>
       </c>
       <c r="S18" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U18" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="V18" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W18" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X18" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y18" t="n">
         <v>5.3</v>
@@ -3656,7 +3723,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3701,7 +3768,7 @@
         <v>14</v>
       </c>
       <c r="AS18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT18" t="n">
         <v>25</v>
@@ -3710,10 +3777,10 @@
         <v>18</v>
       </c>
       <c r="AV18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>3.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
         <v>14</v>
@@ -3865,7 +3932,7 @@
         <v>16</v>
       </c>
       <c r="AM19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
@@ -4247,7 +4314,7 @@
         <v>19</v>
       </c>
       <c r="AS21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT21" t="n">
         <v>27</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -4306,67 +4373,67 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" t="n">
         <v>43</v>
       </c>
       <c r="F22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>0.768</v>
+        <v>0.782</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="J22" t="n">
-        <v>82.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L22" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M22" t="n">
         <v>20.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.354</v>
+        <v>0.358</v>
       </c>
       <c r="O22" t="n">
         <v>19.4</v>
       </c>
       <c r="P22" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.803</v>
+        <v>0.804</v>
       </c>
       <c r="R22" t="n">
         <v>11</v>
       </c>
       <c r="S22" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="T22" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U22" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V22" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W22" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X22" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y22" t="n">
         <v>3.8</v>
@@ -4378,13 +4445,13 @@
         <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.6</v>
+        <v>105</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4399,7 +4466,7 @@
         <v>26</v>
       </c>
       <c r="AI22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ22" t="n">
         <v>20</v>
@@ -4414,7 +4481,7 @@
         <v>18</v>
       </c>
       <c r="AN22" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4432,13 +4499,13 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
         <v>14</v>
       </c>
       <c r="AV22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW22" t="n">
         <v>11</v>
@@ -4456,7 +4523,7 @@
         <v>19</v>
       </c>
       <c r="BB22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -4599,7 +4666,7 @@
         <v>22</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>3.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
@@ -4942,7 +5009,7 @@
         <v>8</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
         <v>9</v>
@@ -5002,7 +5069,7 @@
         <v>8</v>
       </c>
       <c r="BB25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -5112,13 +5179,13 @@
         <v>4</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
         <v>6</v>
@@ -5142,7 +5209,7 @@
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>6.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5691,7 +5758,7 @@
         <v>13</v>
       </c>
       <c r="AO29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP29" t="n">
         <v>9</v>
@@ -5724,7 +5791,7 @@
         <v>13</v>
       </c>
       <c r="AZ29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE30" t="n">
         <v>24</v>
@@ -5897,7 +5964,7 @@
         <v>14</v>
       </c>
       <c r="AW30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX30" t="n">
         <v>19</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-20-2013-14</t>
+          <t>2014-02-20</t>
         </is>
       </c>
     </row>
